--- a/nr-heritage-medicationrequest/ig/ValueSet-fr-medication-reconciliation-outcome.xlsx
+++ b/nr-heritage-medicationrequest/ig/ValueSet-fr-medication-reconciliation-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T11:52:35+00:00</t>
+    <t>2025-07-21T11:59:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-heritage-medicationrequest/ig/ValueSet-fr-medication-reconciliation-outcome.xlsx
+++ b/nr-heritage-medicationrequest/ig/ValueSet-fr-medication-reconciliation-outcome.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T11:59:07+00:00</t>
+    <t>2025-07-22T07:44:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-heritage-medicationrequest/ig/ValueSet-fr-medication-reconciliation-outcome.xlsx
+++ b/nr-heritage-medicationrequest/ig/ValueSet-fr-medication-reconciliation-outcome.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>FrMedicationReconciliationOutcome</t>
+    <t>FRMedicationReconciliationOutcome</t>
   </si>
   <si>
     <t>Title</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T07:44:08+00:00</t>
+    <t>2025-07-23T07:26:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,31 +78,34 @@
     <t>Jurisdiction</t>
   </si>
   <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Le jeu de valeurs à utiliser pour coder la gravité de l'erreur sur une ligne de traitement d'une FCT (Fiche de Conciliation des Traitements médicamenteux).</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[false]</t>
+  </si>
+  <si>
+    <t>Codes</t>
+  </si>
+  <si>
+    <t>All codes</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Le jeu de valeurs à utiliser pour coder la gravité de l'erreur sur une ligne de traitement d'une FCT (Fiche de Conciliation des Traitements médicamenteux).</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[false]</t>
-  </si>
-  <si>
-    <t>Codes</t>
-  </si>
-  <si>
-    <t>All codes</t>
   </si>
   <si>
     <t>System URI</t>
@@ -397,18 +400,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
